--- a/data/datos_limpios/sponsors.xlsx
+++ b/data/datos_limpios/sponsors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD SanDisk Extreme/DATA ANALYTICS/HACKIO/BOOTCAMP/16.PROYECTO_FINAL/data/datos_limpios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzalo/Desktop/HACKIO/BOOTCAMP/16.PROYECTO_FINAL/data/datos_limpios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A247EEC0-4F42-124D-87DB-58E66A5F03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BFDE8-AEBB-DB4A-A3C9-CF5698301C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{98E33A55-2C8D-CD4E-A508-768F92744571}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>marathon</t>
   </si>
@@ -147,16 +147,87 @@
   </si>
   <si>
     <t>Dicks</t>
+  </si>
+  <si>
+    <t>url_logo</t>
+  </si>
+  <si>
+    <t>https://www.bmw-berlin-marathon.com/fileadmin/media/sponsors/BMWlogogray.svg</t>
+  </si>
+  <si>
+    <t>https://www.bmw-berlin-marathon.com/fileadmin/media/sponsors/adidas.svg</t>
+  </si>
+  <si>
+    <t>https://www.bmw-berlin-marathon.com/fileadmin/media/sponsors/Abbott_Laboratories_logo.svg</t>
+  </si>
+  <si>
+    <t>https://www.bmw-berlin-marathon.com/fileadmin/media/sponsors/Zalando-neu.svg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Tata_Consultancy_Services_old_logo.svg/1024px-Tata_Consultancy_Services_old_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/New_Balance_logo.svg/440px-New_Balance_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://getlogo.net/wp-content/uploads/2021/03/buxton-natural-mineral-water-logo-vector.png</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/5ed2b4c544645f20fdbaf570/b822fe48-47fb-4232-8e64-9c8ba54356ee/Coopah-web-logo.png?format=1500w</t>
+  </si>
+  <si>
+    <t>https://logovectorseek.com/wp-content/uploads/2021/06/enthuse-logo-vector.png</t>
+  </si>
+  <si>
+    <t>https://www.ford.co.uk/content/dam/guxeu/global-shared/header/ford_oval_blue_logo.svg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTjrmAwNOt0bGrkrLNFH4Z4PEnpYkQFILLeEA&amp;s</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz4KPCEtLSBHZW5lcmF0b3I6IEFkb2JlIElsbHVzdHJhdG9yIDI2LjMuMSwgU1ZHIEV4cG9ydCBQbHVnLUluIC4gU1ZHIFZlcnNpb246IDYuMDAgQnVpbGQgMCkgIC0tPgo8c3ZnIHZlcnNpb249IjEuMSIgaWQ9IkxheWVyXzEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiIHg9IjBweCIgeT0iMHB4IgoJIHZpZXdCb3g9IjAgMCAzMzguNjU5NjEgOTYiIGVuYWJsZS1iYWNrZ3JvdW5kPSJuZXcgMCAwIDMzOC42NTk2MSA5NiIgeG1sOnNwYWNlPSJwcmVzZXJ2ZSI+CjxnPgoJPHBvbHlnb24gZmlsbD0iIzIxMzM0MyIgcG9pbnRzPSIzNi42NzcyNSw1NC4zMzIxOSAxMS44MDkxOCw1NC4zMzIxOSAxMS44MDkxOCw4MC41Mjg1OSAwLDgwLjUyODU5IDAsMTUuODkwODMgMTEuODA5MTgsMTUuODkwODMgCgkJMTEuODA5MTgsNDIuOTcxMDMgMzYuNjc3MjUsNDIuOTcxMDMgMzYuNjc3MjUsMTUuODkwODMgNDguNDgzNzgsMTUuODkwODMgNDguNDgzNzgsODAuNTI4NTkgMzYuNjc3MjUsODAuNTI4NTkgCSIvPgoJPHBhdGggZmlsbD0iIzIxMzM0MyIgZD0iTTg2LjI2OTM2LDU5LjYzNjM0YzAsNS4zODM0NC00LjM4NTMxLDkuNzYzNzUtOS43Njc1NSw5Ljc2Mzc1Yy01LjM4MzY4LDAtOS43NjYxNi00LjM4MDMxLTkuNzY2MTYtOS43NjM3NQoJCXYtMjcuNjg0OUg1NS41NTMzOXYyNy42ODQ5YzAsMTEuNTUwMjUsOS4zOTc2NCwyMC45NDU1OCwyMC45NDg0MiwyMC45NDU1OGMxMS41NDg0MiwwLDIwLjk0NjA1LTkuMzk1MzMsMjAuOTQ2MDUtMjAuOTQ1NTgKCQl2LTI3LjY4NDloLTExLjE3ODVWNTkuNjM2MzR6Ii8+Cgk8cGF0aCBmaWxsPSIjMjEzMzQzIiBkPSJNMTY5LjI0NTU2LDM0LjgwMTljMC01LjY3NjIxLDMuNzU2OTktNy40NzYxNSw3Ljg3MDI1LTcuNDc2MTVjMy4zMTIwMSwwLDcuNjk0NzIsMi41MjA2OSwxMC41NTQyNCw1LjU4MzYxCgkJbDcuMzMzMjUtOC42NDQ0Yy0zLjY2NDUxLTQuOTUxMi0xMS4wODc5MS04LjM3NDEzLTE3LjE3MDc1LTguMzc0MTNjLTEyLjE2NzMxLDAtMjAuOTMzODUsNy4xMTQyNC0yMC45MzM4NSwxOC45MTEwNgoJCWMwLDIxLjg4MDQ2LDI2Ljc0ODIsMTQuOTQ0NzksMjYuNzQ4MiwyNy4xOTQwNGMwLDMuNzc3NTMtMy42NjYzOCw3LjExMjM2LTcuODY5MzQsNy4xMTIzNgoJCWMtNi42MjE3LDAtOC43Njk2MS0zLjI0MTc0LTExLjgwOTg2LTYuNjY0bC04LjE0MTgyLDguNDYyNzJjNS4xOTEyMiw2LjM5MzczLDExLjYzMDA4LDkuNjM3MzYsMTkuMzIzNjUsOS42MzczNgoJCWMxMS41Mzk0OSwwLDIwLjg0MzI1LTcuMjA0MDUsMjAuODQzMjUtMTguNDYxNDlDMTk1Ljk5MjgsMzcuNzcxNDgsMTY5LjI0NTU2LDQ1LjMzNjI3LDE2OS4yNDU1NiwzNC44MDE5eiIvPgoJPHBhdGggZmlsbD0iIzIxMzM0MyIgZD0iTTMzNC43MjA0OSw3MC4yMDI3OGMtNi42MTY5NywwLTguNDk1MDYtMi44NjA5Ni04LjQ5NTA2LTcuMjQ1OThWNDMuNTQ2NThoMTAuMjg0ODJ2LTkuODM4OTJoLTEwLjI4NDgyCgkJVjIwLjczNTE1bC0xMS4zNTc3OSw1LjA5ODI2djM5LjUzOTMxYzAsMTAuMTA5Myw2Ljk3NDY0LDE1LjIwOTIsMTYuNTQyNjYsMTUuMjA5MmMxLjQzMTIxLDAsMy40MDEyMS0wLjA5MjQ4LDQuNDc1NjgtMC4zNTc2NgoJCWwyLjc3MzYyLTEwLjE5NzA2QzMzNy40MDc3NSw3MC4xMTM1NywzMzUuOTc3MDIsNzAuMjAyNzgsMzM0LjcyMDQ5LDcwLjIwMjc4eiIvPgoJPHBhdGggZmlsbD0iIzIxMzM0MyIgZD0iTTEyOC44OTMyMywzMi4yNzUzM2MtNS41NDY3MywwLTkuNDE4MjksMS42MTAwMi0xMy4xNTczNiw1LjI4MDAzVjE2LjI3Njg1aC0xMS4yMTgwOXYzOS40MzU0NgoJCWMwLDE0Ljc2MDQsMTAuNjcxNjEsMjQuODY5NjMsMjIuNjYyMzYsMjQuODY5NjNjMTMuMzI5MDYsMCwyNS4wMDc3Ny0xMC4yODg5OSwyNS4wMDc3Ny0yNC4xNTIzMgoJCUMxNTIuMTg3OTEsNDIuNzQxOTEsMTQxLjQxODY5LDMyLjI3NTMzLDEyOC44OTMyMywzMi4yNzUzM3ogTTEyOC44MjM1LDY5LjI5MTczYy03LjAyNzU0LDAtMTIuNzIzNzQtNS42OTY0Mi0xMi43MjM3NC0xMi43MjM1MwoJCWMwLTcuMDI2ODksNS42OTYyLTEyLjcyMzUzLDEyLjcyMzc0LTEyLjcyMzUzYzcuMDI2NjcsMCwxMi43MjMzMSw1LjY5NjY0LDEyLjcyMzMxLDEyLjcyMzUzCgkJQzE0MS41NDY4MSw2My41OTUzLDEzNS44NTAxNyw2OS4yOTE3MywxMjguODIzNSw2OS4yOTE3M3oiLz4KCTxwYXRoIGZpbGw9IiMyMTMzNDMiIGQ9Ik0yNTAuNjgzNDYsNTUuODQ3MjRjMC0xMy44NjMzMy0xMS42Nzg3My0yNC4xNTIzMi0yNS4wMDc3OC0yNC4xNTIzMgoJCWMtMTEuOTkwNzUsMC0yMi42NjIzNSwxMC4xMDkyMi0yMi42NjIzNSwyNC44Njk2M1Y5NmgxMS4yMTgwOVY3NC43MjE0OWMzLjczOTA2LDMuNjcwMDEsNy42MTA2Myw1LjI4MDAzLDEzLjE1NzM1LDUuMjgwMDMKCQlDMjM5LjkxNDIyLDgwLjAwMTUyLDI1MC42ODM0Niw2OS41MzQ5NCwyNTAuNjgzNDYsNTUuODQ3MjR6IE0yNDAuMDQyMzQsNTUuNzA4NjVjMCw3LjAyNjg5LTUuNjk2NjQsMTIuNzIzNTMtMTIuNzIzMzEsMTIuNzIzNTMKCQljLTcuMDI3NTQsMC0xMi43MjM3NC01LjY5NjY0LTEyLjcyMzc0LTEyLjcyMzUzYzAtNy4wMjcxLDUuNjk2Mi0xMi43MjM1MywxMi43MjM3NC0xMi43MjM1MwoJCUMyMzQuMzQ1Nyw0Mi45ODUxMywyNDAuMDQyMzQsNDguNjgxNTUsMjQwLjA0MjM0LDU1LjcwODY1eiIvPgoJPHBhdGggZmlsbD0iI0ZGNUMzNSIgZD0iTTI4Ni45MzI0NiwzMS4xNTE1NFYxOS44ODMxMmMyLjk0MTE2LTEuMzg5NTEsNS4wMDIwMS00LjM2NTA4LDUuMDAyMDEtNy44MTg1di0wLjI2MDM4CgkJYzAtNC43NjU1Ny0zLjg5OTQ0LTguNjY0OC04LjY2NDgzLTguNjY0OGgtMC4yNjAxNmMtNC43NjU3OCwwLTguNjY1MjIsMy44OTkyMy04LjY2NTIyLDguNjY0OHYwLjI2MDM4CgkJYzAsMy40NTM0MSwyLjA2MTI4LDYuNDI5NDIsNS4wMDI0MSw3LjgxODcydjExLjI2ODQyYy00LjM3OTI0LDAuNjc2NTYtOC4zODA2NSwyLjQ4MjY5LTExLjY4MjE5LDUuMTQwNzlsLTMwLjkzODg3LTI0LjA2NzU2CgkJYzAuMjAzNTEtMC43ODM3NywwLjM0NjQ1LTEuNTkxMjksMC4zNDczMi0yLjQzODY4YzAuMDA2OTctNS4zOTc5MS00LjM2MzEzLTkuNzc5MzMtOS43NjEyNS05Ljc4NjMxCgkJYy01LjM5ODEzLTAuMDA2NzUtOS43Nzk1Niw0LjM2MzU2LTkuNzg2NTMsOS43NjE0N2MtMC4wMDY1Myw1LjM5NzkxLDQuMzYzNTYsOS43NzkzMyw5Ljc2MTY5LDkuNzg2MDkKCQljMS43NTkyOCwwLjAwMjE4LDMuMzg3MzktMC40OTc0NSw0LjgxNDYxLTEuMzA5MTFsMzAuNDM0NjUsMjMuNjc1NzljLTIuNTg4NTksMy45MDY4NS00LjEwNDI1LDguNTg2OC00LjEwNDI1LDEzLjYyNDUyCgkJYzAsNS4yNzQ1OCwxLjY2NjAyLDEwLjE1MjgxLDQuNDgyMDksMTQuMTY1NzdsLTkuMjU1NzQsOS4yNTU3NGMtMC43MzE2OS0wLjIxOTQyLTEuNDkxMjctMC4zNzMwNC0yLjI5NDg2LTAuMzczMDQKCQljLTQuNDM1NDcsMC04LjAzMTYsMy41OTU5Mi04LjAzMTYsOC4wMzE2czMuNTk2MTMsOC4wMzE2LDguMDMxNiw4LjAzMTZjNC40MzU5LDAsOC4wMzE1OS0zLjU5NTkyLDguMDMxNTktOC4wMzE2CgkJYzAtMC44MDMxNi0wLjE1MzM4LTEuNTYyOTYtMC4zNzMwMi0yLjI5NDY1bDkuMTU1NDktOS4xNTUyOGM0LjE1NTcsMy4xNzI1NSw5LjMzMDY5LDUuMDc4MDMsMTQuOTYyODMsNS4wNzgwMwoJCWMxMy42NDU0NSwwLDI0LjcwNzUyLTExLjA2MjI5LDI0LjcwNzUyLTI0LjcwODE3QzMwNy44NDc3NSw0My4xODU4NywyOTguNzcyODYsMzIuOTgwMzMsMjg2LjkzMjQ2LDMxLjE1MTU0eiBNMjgzLjE0MDIzLDY4LjIwNjI4CgkJYy02Ljk5NjE1LDAtMTIuNjY4NC01LjY3MTM3LTEyLjY2ODQtMTIuNjY3NTNjMC02Ljk5NTk0LDUuNjcyMjQtMTIuNjY3NTMsMTIuNjY4NC0xMi42Njc1MwoJCWM2Ljk5NTMsMCwxMi42Njc1NCw1LjY3MTU4LDEyLjY2NzU0LDEyLjY2NzUzQzI5NS44MDc3Nyw2Mi41MzQ5MiwyOTAuMTM1NTMsNjguMjA2MjgsMjgzLjE0MDIzLDY4LjIwNjI4eiIvPgo8L2c+Cjwvc3ZnPgo=</t>
+  </si>
+  <si>
+    <t>https://images.contentstack.io/v3/assets/blt1d89a78b502b83f3/bltaaf3797b3dc1c724/612e43a1ec803a5a66b1b1c6/iFIT_Logo_8.31.21.svg</t>
+  </si>
+  <si>
+    <t>https://www.lucozade.com/assets/images/lucozade_logo.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ37g-izIuTHDtJ49QPNtDiwQqmBE6s2c-gPA&amp;s</t>
+  </si>
+  <si>
+    <t>https://assets.unileversolutions.com/v1/34822805.png?im=AspectCrop=(120,83);Resize=(120,83)</t>
+  </si>
+  <si>
+    <t>https://bikebiz.com/wp-content/uploads/Shokz-black.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlT-cb1M3WdaiVDJGjRRR1_QluFpzOlBP_bA&amp;s</t>
+  </si>
+  <si>
+    <t>https://www.tagheuer.com/on/demandware.static/Sites-TAG_US-Site/-/default/dw33f27ca5/images/th-logo.svg</t>
+  </si>
+  <si>
+    <t>https://i-cf65.ch-static.com/content/dam/cf-consumer-healthcare/voltaren-delta/en_GB/header/Voltarol_Tagline_201x60.png?auto=format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +250,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -202,11 +276,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A65F9A-E819-594A-9400-EFFAC6DAD5EF}" name="Tabla1" displayName="Tabla1" ref="A1:B40" totalsRowShown="0">
-  <autoFilter ref="A1:B40" xr:uid="{73A65F9A-E819-594A-9400-EFFAC6DAD5EF}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A65F9A-E819-594A-9400-EFFAC6DAD5EF}" name="Tabla1" displayName="Tabla1" ref="A1:C40" totalsRowShown="0">
+  <autoFilter ref="A1:C40" xr:uid="{73A65F9A-E819-594A-9400-EFFAC6DAD5EF}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4685999-E4C3-844B-8188-D9D3CFE0EB65}" name="sponsor"/>
     <tableColumn id="2" xr3:uid="{8D8A643B-B3D7-ED4A-AF0C-C5FF9C9F2354}" name="marathon"/>
+    <tableColumn id="3" xr3:uid="{460854C8-8B25-5C4F-B73D-FDE58D56C5F1}" name="url_logo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,195 +604,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C274DB02-0D74-B549-AEA1-5D1E3A497471}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B40"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -725,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -733,23 +875,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -757,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -765,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -773,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -781,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -789,15 +937,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -805,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -813,15 +964,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -829,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -837,15 +991,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -853,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -862,9 +1019,36 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{39C6720C-7601-A243-8DF7-ABFD0602361F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CEA9F0D4-6483-1944-A18F-51C1BC3B72AA}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{F1CC2487-0477-4440-BA30-00A836544970}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{1F377420-CF70-FD47-BC6D-731347D10A13}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{F6D191BA-2B22-DC4F-837B-7EBF916E0E18}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{655659D1-9494-9B49-9BA3-C816561E47C2}"/>
+    <hyperlink ref="C38" r:id="rId7" xr:uid="{2A684CFA-6CA6-5D47-B222-3BDF8C1CCCD4}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{A85A14AB-D116-F042-AA24-D0A7B1B75C8F}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{748F2799-8FD1-9C4D-8FAE-D82DDF517D38}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{5F2D2998-0969-E049-83A4-A7ECC6FAD2DB}"/>
+    <hyperlink ref="C35" r:id="rId11" xr:uid="{EFA1C9CF-6A27-9E43-BB60-0AE58177230F}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{DE5779DD-38F3-1042-BD82-657DCBE04019}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{091535F9-C94A-3049-8F4B-2F5C8D441D2E}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{72DF92FC-FE27-BC47-910C-1EEB116B52E2}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{F9A516BD-51C7-864E-B748-09477275AF62}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{434FFD59-634A-4847-84AE-212B740444FA}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{25AF7C9C-A6B9-7040-BEF3-817633C5BC00}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{F27C07DE-9B80-8B44-B4CF-18563D26D77A}"/>
+    <hyperlink ref="C16" r:id="rId19" xr:uid="{021CD8FA-43E2-4646-A83C-0C9C7741B1A5}"/>
+    <hyperlink ref="C17" r:id="rId20" xr:uid="{7DCBD575-A7BF-8243-AB83-8A9902E8136B}"/>
+    <hyperlink ref="C18" r:id="rId21" xr:uid="{A9334154-AE02-2E40-A2A6-20705E48B2AB}"/>
+    <hyperlink ref="C19" r:id="rId22" xr:uid="{E4ADA925-66B3-7E4D-B24B-C5C7062A193F}"/>
+    <hyperlink ref="C20" r:id="rId23" xr:uid="{158D0782-39A7-2D41-B503-89EA76311391}"/>
+    <hyperlink ref="C21" r:id="rId24" xr:uid="{B13067FA-AD00-BE40-9D2D-460256E20E16}"/>
+    <hyperlink ref="C22" r:id="rId25" xr:uid="{D76D0E34-553B-AE49-AED7-D3C2831F05C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>